--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.064900000000005</v>
+        <v>6.353900000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.472700000000003</v>
+        <v>9.567400000000006</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.122500000000004</v>
+        <v>8.909500000000005</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.704699999999999</v>
+        <v>5.857300000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.639999999999997</v>
+        <v>5.6369</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.049499999999997</v>
+        <v>4.993699999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.680199999999997</v>
+        <v>4.812099999999996</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.380799999999996</v>
+        <v>5.394199999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.176500000000003</v>
+        <v>8.650300000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.173899999999998</v>
+        <v>5.403999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.658999999999999</v>
+        <v>5.7704</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
